--- a/REHAISH GHOUSIA MASJID.xlsx
+++ b/REHAISH GHOUSIA MASJID.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Expence of rehaish" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>S.N0</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Lanter Slab</t>
   </si>
   <si>
-    <t>Glazed Tile</t>
-  </si>
-  <si>
     <t>Door &amp; Window</t>
   </si>
   <si>
@@ -105,12 +102,6 @@
     <t>Block  3000</t>
   </si>
   <si>
-    <t>complete color with labour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitchen Marbel Top 2 no.s </t>
-  </si>
-  <si>
     <t>18-11-2019</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>25/9/2019</t>
   </si>
   <si>
-    <t>Abid</t>
-  </si>
-  <si>
     <t>15/10/2019</t>
   </si>
   <si>
@@ -201,9 +189,6 @@
     <t>13/12/2019</t>
   </si>
   <si>
-    <t>Electric Cork</t>
-  </si>
-  <si>
     <t>14/12/2019</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>21/12/2019</t>
   </si>
   <si>
-    <t>Tiles Abid</t>
-  </si>
-  <si>
     <t>23/12/2019</t>
   </si>
   <si>
@@ -292,6 +274,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Ghousia H Area near jinnah square malir</t>
+  </si>
+  <si>
+    <t>10-02-2020</t>
+  </si>
+  <si>
+    <t>30-07-2020</t>
+  </si>
+  <si>
+    <t>12-02-2020</t>
+  </si>
+  <si>
+    <t>Wall Tile</t>
+  </si>
+  <si>
+    <t>30-01-2020</t>
+  </si>
+  <si>
+    <t>12-08-2020</t>
+  </si>
+  <si>
+    <t>Color With Labour</t>
+  </si>
+  <si>
+    <t>29-07-2020</t>
+  </si>
+  <si>
+    <t>29-01-2020</t>
+  </si>
+  <si>
+    <t>Kitchen Marbel Top No2</t>
+  </si>
+  <si>
+    <t>20-02-2020</t>
+  </si>
+  <si>
+    <t>04-11-2019</t>
+  </si>
+  <si>
+    <t>16-08-2020</t>
+  </si>
+  <si>
+    <t>05-02-2020</t>
+  </si>
+  <si>
+    <t>02-02-2020</t>
+  </si>
+  <si>
+    <t>15-08-2020</t>
+  </si>
+  <si>
+    <t>6x24= 50 Piece</t>
+  </si>
+  <si>
+    <t>Electric Coile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiles </t>
+  </si>
+  <si>
+    <t>28/01/2020</t>
+  </si>
+  <si>
+    <t>28-01-2020</t>
   </si>
 </sst>
 </file>
@@ -575,9 +620,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +660,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +684,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -925,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,22 +984,22 @@
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="152.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -966,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
@@ -982,13 +1025,13 @@
       <c r="B6" s="8">
         <v>106</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>1300</v>
       </c>
     </row>
@@ -999,13 +1042,13 @@
       <c r="B7" s="8">
         <v>109</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>20000</v>
       </c>
     </row>
@@ -1016,13 +1059,13 @@
       <c r="B8" s="8">
         <v>112</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22">
         <v>83700</v>
       </c>
     </row>
@@ -1033,13 +1076,13 @@
       <c r="B9" s="8">
         <v>115</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>28400</v>
       </c>
     </row>
@@ -1050,13 +1093,13 @@
       <c r="B10" s="8">
         <v>119</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>12000</v>
       </c>
     </row>
@@ -1067,13 +1110,13 @@
       <c r="B11" s="8">
         <v>120</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>7200</v>
       </c>
     </row>
@@ -1084,13 +1127,13 @@
       <c r="B12" s="8">
         <v>121</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>6300</v>
       </c>
     </row>
@@ -1101,13 +1144,13 @@
       <c r="B13" s="8">
         <v>122</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>3000</v>
       </c>
     </row>
@@ -1118,13 +1161,13 @@
       <c r="B14" s="8">
         <v>123</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>7000</v>
       </c>
     </row>
@@ -1135,13 +1178,13 @@
       <c r="B15" s="8">
         <v>124</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>8000</v>
       </c>
     </row>
@@ -1152,13 +1195,13 @@
       <c r="B16" s="8">
         <v>127</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="22">
         <v>5000</v>
       </c>
     </row>
@@ -1169,11 +1212,13 @@
       <c r="B17" s="8">
         <v>403</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="23">
+      <c r="C17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="22">
         <v>63000</v>
       </c>
     </row>
@@ -1184,11 +1229,13 @@
       <c r="B18" s="8">
         <v>128</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="23">
+      <c r="D18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="22">
         <v>26000</v>
       </c>
     </row>
@@ -1199,11 +1246,13 @@
       <c r="B19" s="8">
         <v>540</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23">
+      <c r="D19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="22">
         <v>90000</v>
       </c>
     </row>
@@ -1212,11 +1261,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="23">
+      <c r="D20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="22">
         <v>7500</v>
       </c>
     </row>
@@ -1234,13 +1285,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -1248,11 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="23">
+      <c r="C28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="22">
         <v>90000</v>
       </c>
     </row>
@@ -1261,11 +1314,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="23">
+      <c r="C29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="22">
         <v>45000</v>
       </c>
     </row>
@@ -1274,11 +1329,13 @@
         <v>18</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="23">
+      <c r="C30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="22">
         <v>45000</v>
       </c>
     </row>
@@ -1287,11 +1344,13 @@
         <v>19</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="23">
+      <c r="C31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="22">
         <v>15000</v>
       </c>
     </row>
@@ -1300,11 +1359,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="23">
+      <c r="C32" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="22">
         <v>9944</v>
       </c>
     </row>
@@ -1313,11 +1374,13 @@
         <v>21</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="23">
+      <c r="C33" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="22">
         <v>23000</v>
       </c>
     </row>
@@ -1326,11 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="23">
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="22">
         <v>9000</v>
       </c>
     </row>
@@ -1341,13 +1406,13 @@
       <c r="B35" s="8">
         <v>4558</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="23">
+      <c r="C35" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="22">
         <v>26600</v>
       </c>
     </row>
@@ -1356,11 +1421,13 @@
         <v>24</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="23">
+      <c r="C36" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="22">
         <v>7180</v>
       </c>
     </row>
@@ -1369,11 +1436,13 @@
         <v>25</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="23">
+      <c r="C37" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="22">
         <v>17820</v>
       </c>
     </row>
@@ -1382,11 +1451,13 @@
         <v>26</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="23">
+      <c r="C38" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="22">
         <v>5000</v>
       </c>
     </row>
@@ -1395,11 +1466,13 @@
         <v>27</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="23">
+      <c r="C39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="22">
         <v>13000</v>
       </c>
     </row>
@@ -1408,11 +1481,13 @@
         <v>28</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="23">
+      <c r="C40" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="22">
         <v>15000</v>
       </c>
     </row>
@@ -1421,11 +1496,13 @@
         <v>29</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="23">
+      <c r="C41" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="22">
         <v>15000</v>
       </c>
     </row>
@@ -1436,29 +1513,31 @@
       <c r="B42" s="8">
         <v>131</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="23">
+      <c r="C42" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="22">
         <v>15000</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="25"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="24">
+      <c r="A44" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="23">
         <f>SUM(E6:E42)</f>
         <v>719944</v>
       </c>
@@ -1481,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,22 +1575,22 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="251.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,253 +1598,253 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13">
+        <v>300000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1200</v>
+      </c>
+      <c r="E7" s="14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16">
+        <v>43687</v>
+      </c>
+      <c r="D9" s="13">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="14">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14">
-        <v>300000</v>
-      </c>
-      <c r="E6" s="15">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1200</v>
-      </c>
-      <c r="E7" s="15">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2100</v>
-      </c>
-      <c r="E8" s="15">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="D11" s="13">
+        <v>2250</v>
+      </c>
+      <c r="E11" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17">
-        <v>43687</v>
-      </c>
-      <c r="D9" s="14">
-        <v>50000</v>
-      </c>
-      <c r="E9" s="15">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11">
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C13" s="16">
+        <v>43596</v>
+      </c>
+      <c r="D13" s="13">
+        <v>15000</v>
+      </c>
+      <c r="E13" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D14" s="13">
+        <v>25000</v>
+      </c>
+      <c r="E14" s="14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="14">
-        <v>2250</v>
-      </c>
-      <c r="E11" s="15">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="C15" s="16">
+        <v>43628</v>
+      </c>
+      <c r="D15" s="13">
+        <v>12000</v>
+      </c>
+      <c r="E15" s="14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="16">
+        <v>43628</v>
+      </c>
+      <c r="D16" s="13">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14">
-        <v>100000</v>
-      </c>
-      <c r="E12" s="15">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17">
-        <v>43596</v>
-      </c>
-      <c r="D13" s="14">
-        <v>15000</v>
-      </c>
-      <c r="E13" s="15">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="D17" s="13">
+        <v>25100</v>
+      </c>
+      <c r="E17" s="14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="13">
+        <v>13500</v>
+      </c>
+      <c r="E18" s="14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="14">
-        <v>25000</v>
-      </c>
-      <c r="E14" s="15">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
-        <v>10</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="17">
-        <v>43628</v>
-      </c>
-      <c r="D15" s="14">
-        <v>12000</v>
-      </c>
-      <c r="E15" s="15">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11">
-        <v>11</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="17">
-        <v>43628</v>
-      </c>
-      <c r="D16" s="14">
-        <v>15000</v>
-      </c>
-      <c r="E16" s="15">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11">
-        <v>12</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="14">
-        <v>25100</v>
-      </c>
-      <c r="E17" s="15">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11">
-        <v>13</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="14">
-        <v>13500</v>
-      </c>
-      <c r="E18" s="15">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>107000</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>118</v>
       </c>
     </row>
@@ -1783,367 +1862,383 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="26">
+    <row r="31" spans="1:5" s="30" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="25">
         <v>15</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="28">
+        <v>32500</v>
+      </c>
+      <c r="E31" s="29">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10">
+        <v>16</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="13">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10">
+        <v>17</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="13">
+        <v>175340</v>
+      </c>
+      <c r="E33" s="14">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="10">
+        <v>18</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="29">
+      <c r="C34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="13">
+        <v>100010</v>
+      </c>
+      <c r="E34" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="10">
+        <v>19</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="13">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="10">
+        <v>20</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="13">
+        <v>9600</v>
+      </c>
+      <c r="E36" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="10">
+        <v>21</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="16">
+        <v>43567</v>
+      </c>
+      <c r="D37" s="13">
+        <v>30800</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="10">
+        <v>22</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="13">
+        <v>44600</v>
+      </c>
+      <c r="E38" s="14">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="10">
+        <v>23</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="13">
+        <v>3500</v>
+      </c>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10">
+        <v>24</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="13">
+        <v>6300</v>
+      </c>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10">
+        <v>25</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="13">
+        <v>12500</v>
+      </c>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="10">
+        <v>26</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="13">
+        <v>4650</v>
+      </c>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10">
+        <v>27</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="13">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="10">
+        <v>28</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="16">
+        <v>44013</v>
+      </c>
+      <c r="D44" s="13">
+        <v>30000</v>
+      </c>
+      <c r="E44" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="10">
+        <v>29</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="13">
         <v>32500</v>
       </c>
-      <c r="E31" s="30">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11">
-        <v>16</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="14">
-        <v>4500</v>
-      </c>
-      <c r="E32" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="11">
-        <v>17</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="14">
-        <v>175340</v>
-      </c>
-      <c r="E33" s="15">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="11">
-        <v>18</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="E45" s="14">
         <v>49</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="14">
-        <v>100010</v>
-      </c>
-      <c r="E34" s="15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="11">
-        <v>19</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="14">
-        <v>5500</v>
-      </c>
-      <c r="E35" s="15">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="11">
-        <v>20</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="14">
-        <v>9600</v>
-      </c>
-      <c r="E36" s="15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="11">
-        <v>21</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="17">
-        <v>43567</v>
-      </c>
-      <c r="D37" s="14">
-        <v>30800</v>
-      </c>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="11">
-        <v>22</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="14">
-        <v>44600</v>
-      </c>
-      <c r="E38" s="15">
-        <v>4151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="11">
-        <v>23</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="14">
-        <v>3500</v>
-      </c>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="11">
-        <v>24</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="14">
-        <v>6300</v>
-      </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="11">
-        <v>25</v>
-      </c>
-      <c r="B41" s="12" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="10">
+        <v>30</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C46" s="16">
+        <v>43923</v>
+      </c>
+      <c r="D46" s="13">
+        <v>72146</v>
+      </c>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="10">
+        <v>31</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="14">
-        <v>12500</v>
-      </c>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="11">
-        <v>26</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="14">
-        <v>4650</v>
-      </c>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="11">
-        <v>27</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="C47" s="40">
+        <v>43984</v>
+      </c>
+      <c r="D47" s="13">
+        <v>35000</v>
+      </c>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="10">
+        <v>32</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="14">
-        <v>6000</v>
-      </c>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="11">
-        <v>28</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="C48" s="40">
+        <v>44014</v>
+      </c>
+      <c r="D48" s="13">
+        <v>35000</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="10">
+        <v>33</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="14">
-        <v>30000</v>
-      </c>
-      <c r="E44" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
-        <v>29</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="C49" s="40">
+        <v>44014</v>
+      </c>
+      <c r="D49" s="13">
+        <v>52000</v>
+      </c>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="10">
+        <v>34</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C50" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E50" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="10">
+        <v>35</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="14">
-        <v>32500</v>
-      </c>
-      <c r="E45" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="11">
-        <v>30</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="C51" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E51" s="14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="10">
+        <v>36</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="14">
-        <v>72246</v>
-      </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
-        <v>31</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="14">
-        <v>35000</v>
-      </c>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="11">
-        <v>32</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="14">
-        <v>35000</v>
-      </c>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="11">
-        <v>33</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="14">
-        <v>52000</v>
-      </c>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="11">
-        <v>34</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="14">
-        <v>4000</v>
-      </c>
-      <c r="E50" s="15">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="11">
-        <v>35</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="C52" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="13">
+        <v>13000</v>
+      </c>
+      <c r="E52" s="14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="14">
-        <v>5000</v>
-      </c>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="11">
-        <v>36</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="14">
-        <v>13000</v>
-      </c>
-      <c r="E52" s="15">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="19">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="18">
         <f>SUM(D6:D52)</f>
-        <v>1392696</v>
-      </c>
-      <c r="E53" s="18"/>
+        <v>1392596</v>
+      </c>
+      <c r="E53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
